--- a/ai_bills_openstates.xlsx
+++ b/ai_bills_openstates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K125"/>
+  <dimension ref="A1:L236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,40 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>abstracts</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>description</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>classification</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>subjects</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>status_date</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>sponsors</t>
         </is>
@@ -512,28 +517,29 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>Insurance</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Read for the first time and referred to the House Committee on Insurance</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>2025-04-03T04:00:00+00:00</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -557,28 +563,29 @@
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>State Government</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Read for the first time and referred to the House Committee on State Government</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>2025-02-06T05:00:00+00:00</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -602,28 +609,29 @@
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>Appropriations</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Read for the first time and referred to the House Committee on Ways and Means Education</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>2025-02-05T05:00:00+00:00</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -647,28 +655,29 @@
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>Education</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Read for the Second Time and placed on the Calendar (Education Policy)</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>2025-05-01T04:00:00+00:00</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -692,28 +701,29 @@
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>Consumer Protection</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Read for the first time and referred to the Senate Committee on Fiscal Responsibility and Economic Development</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>2025-04-24T04:00:00+00:00</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -737,28 +747,29 @@
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>resolution</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Resolutions</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>Joint Rule 11</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>2025-04-15T04:00:00+00:00</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -782,28 +793,29 @@
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>Insurance</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>Read for the first time and referred to the House Committee on Insurance</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>2025-04-09T04:00:00+00:00</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -827,28 +839,29 @@
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>Consumer Protection</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>Read for the first time and referred to the House Committee on Commerce and Small Business</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>2025-04-03T04:00:00+00:00</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -872,28 +885,29 @@
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>Insurance</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>Read for the first time and referred to the Senate Committee on Banking and Insurance</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>2025-04-03T04:00:00+00:00</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -917,28 +931,29 @@
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>Crimes &amp; Offenses</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>Enacted</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>2024-05-16T04:00:00+00:00</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -962,28 +977,29 @@
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>Crimes &amp; Offenses</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>Enacted</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>2024-04-24T04:00:00+00:00</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1007,28 +1023,29 @@
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>Crimes &amp; Offenses</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>Currently Indefinitely Postponed</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>2024-05-07T04:00:00+00:00</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1052,28 +1069,29 @@
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>Appropriations</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>Enacted</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>2024-05-16T04:00:00+00:00</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1097,28 +1115,29 @@
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>Appropriations</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>Read for the first time and referred to the Senate Committee on Finance and Taxation Education</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>2024-02-07T05:00:00+00:00</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1142,28 +1161,29 @@
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>resolution</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Alabama's Technology Workforce and Its Economic Contributions to the State</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>Enacted as 2023-268</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>2023-05-25T17:10:00+00:00</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1187,28 +1207,29 @@
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>resolution</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Reaffirming that Redstone Arsenal as best permanent location for the Headquarters of the U.S. Space Command</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>Enacted as 2023-540</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>2023-06-14T13:30:00+00:00</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1232,28 +1253,29 @@
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
           <t>FY24 Education Trust Fund - Governor's Rec.</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>Enacted as 2023-379</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>2023-06-01T14:30:00+00:00</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1277,28 +1299,29 @@
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
           <t>FY24 Education Trust Fund - Governor's Rec.</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>Read First Time in House of Origin</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>2023-03-21T04:00:00+00:00</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1322,28 +1345,29 @@
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
           <t>Artificial Intelligence</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>Assigned Act No. 2022-420.</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>2022-04-06T04:00:00+00:00</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1367,28 +1391,29 @@
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
           <t>Artificial Intelligence</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>Third Reading Indefinitely Postponed</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>2022-03-31T04:00:00+00:00</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1412,28 +1437,29 @@
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
           <t>CAMPAIGNS, COMMUNICATIONS, CRIMES, DISCLOSURE, ELECTIONS, HIGHWAYS, MEDIA, MINORS, MUNICIPALITIES, RESIDENCY, VOTING</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>(H) IN FINANCE</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>2025-05-20</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1457,28 +1483,29 @@
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
           <t>ADOPTION, AGENCY, AGRICULTURE, AIRPORTS, ALCOHOL, APPOINTMENTS, APPROPRIATIONS, ARTS &amp; HUMANITIES, BOARDS &amp; COMMISSIONS, BONDS &amp; BONDING, BUDGET, BUDGET RESERVE FUND, BUILDINGS, CAPITAL PROJECTS, COLLECTIVE BARGAINING, COPYRIGHTS, CORRECTIONS, COURTS, DEBT, ECONOMIC DEVELOPMENT, ECONOMY, EDUCATION, ELECTIONS, ENERGY, ENVIRONMENTAL CONCERNS, EXECUTIVE BRANCH, FEDERAL AID, FEES, FIRE PROTECTION, FISH &amp; GAME (BOTH), FUNDS, GOVERNOR, GRANTS, HEALTH &amp; SOCIAL SERVICES, HIGHWAYS, HOUSING, INSURANCE, LABOR, LAW ENFORCEMENT, LEASES, LEGISLATURE, LIBRARIES, LOANS, MARIJUANA, MARINE HIGHWAY, MENTAL HEALTH, MILITARY, MINING, MINORS, MOTOR VEHICLES, MUSEUMS, OIL &amp; GAS, PERMANENT FUND, PIONEERS' HOMES, PUBLIC ASSISTANCE, PUBLIC CORPORATIONS, PUBLIC EMPLOYEES, PUBLIC FINANCE, PUBLIC OFFICERS, PUBLIC SAFETY, RETIREMENT, REVENUE, SALARIES &amp; ALLOWANCES, SCHOOLS, SPECIAL APPROPRIATIONS, STATE AID, TAXATION, TRANSPORTATION, UNIVERSITIES, UTILITIES, VICTIMS RIGHTS, VOCATIONAL TRAINING, WORKERS COMPENSATION</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>(H) EFFECTIVE DATE(S) OF LAW SEE CHAPTER</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>2025-06-16</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1502,28 +1529,29 @@
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
         <is>
           <t>concurrent resolution</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>BUSINESS, ECONOMIC DEVELOPMENT, LEGISLATIVE COMMITTEES, LEGISLATORS, LEGISLATURE, PRIVACY, SCIENCE &amp; TECHNOLOGY</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>(H) COSPONSOR(S): HOLLAND</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>2025-05-16</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1547,28 +1575,29 @@
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
           <t>AGENCY, CAMPAIGNS, COURTS, EXECUTIVE BRANCH, INTERNET, LIABILITY, PRIVACY, REGULATIONS, SCIENCE &amp; TECHNOLOGY</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>(S) Heard &amp; Held</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>2025-04-29</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1592,28 +1621,29 @@
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
           <t>BUSINESS, CAMPAIGNS, COMMUNICATIONS, ELECTIONS, INTERNET, LIABILITY, MEDIA, SCIENCE &amp; TECHNOLOGY</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>(S) Heard &amp; Held</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>2025-04-29</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1637,28 +1667,29 @@
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
           <t>AGENCY, CAMPAIGNS, COURTS, EXECUTIVE BRANCH, INTERNET, LIABILITY, PRIVACY, REGULATIONS, SCIENCE &amp; TECHNOLOGY</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>(S) FIN REFERRAL ADDED AFTER JUD</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>2024-04-24</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1682,28 +1713,29 @@
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
           <t>BOARDS &amp; COMMISSIONS, ECONOMIC DEVELOPMENT, SCIENCE &amp; TECHNOLOGY</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>(S) REFERRED TO FINANCE</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>2024-04-24</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1727,28 +1759,29 @@
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
           <t>AGRICULTURE, BUSINESS, COMMUNICATIONS, CONSUMER AFFAIRS, ELECTIONS, INTERNET, LIABILITY, MEDIA, SCIENCE &amp; TECHNOLOGY</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>(S) Moved SCS CSHB 358(JUD) Out of Committee</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>2024-05-13</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1772,28 +1805,29 @@
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
           <t>AGENCY, CAMPAIGNS, COURTS, EXECUTIVE BRANCH, INTERNET, LIABILITY, PRIVACY, REGULATIONS, SCIENCE &amp; TECHNOLOGY</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>(H) Minutes (HSTA)</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>2024-03-19</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1817,28 +1851,29 @@
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
           <t>BUSINESS, CORPORATIONS, MUNICIPALITIES, SCIENCE &amp; TECHNOLOGY, STATUTES</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>(H) REFERRED TO JUDICIARY</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>2024-02-20</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1862,28 +1897,29 @@
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
           <t>ADVERTISING, ATTORNEY GENERAL, CONSUMER AFFAIRS, COURTS, FAMILIES, INTERNET, MINORS, RIGHTS, SCIENCE &amp; TECHNOLOGY</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>(H) Minutes (HL&amp;C)</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>2024-03-27</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1907,28 +1943,29 @@
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
           <t>ATTORNEYS, CLAIMS, COMMUNICATIONS, ELECTIONS, FUNDS, LIABILITY, MEDIA, REGULATIONS, RESIDENCY, VOTING</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>(H) NOT TAKEN UP - ADJOURNED SINE DIE</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>2024-05-15</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1952,24 +1989,25 @@
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
         <is>
           <t>Signed by Governor</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>2025-05-12</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1993,24 +2031,25 @@
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
         <is>
           <t>Signed by Governor</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>2025-05-02</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2034,24 +2073,25 @@
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
         <is>
           <t>FAILED</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2075,24 +2115,25 @@
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
         <is>
           <t>House Placed on Consent Calendar</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>2025-02-24</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2116,24 +2157,25 @@
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
         <is>
           <t>House Second Reading</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>2025-02-13</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2157,16 +2199,17 @@
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2190,24 +2233,25 @@
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
         <is>
           <t>Senate Second Reading</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>2025-02-04</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2231,24 +2275,25 @@
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
         <is>
           <t>Senate Second Reading</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>2024-02-06</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2272,24 +2317,25 @@
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
         <is>
           <t>Signed by Governor</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>2024-05-21</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2313,24 +2359,25 @@
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr">
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
         <is>
           <t>Signed by Governor</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>2024-06-21</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2354,24 +2401,25 @@
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
         <is>
           <t>Signed by Governor</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>2024-05-29</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2395,24 +2443,25 @@
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
         <is>
           <t>House Second Reading</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>2024-03-18</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2436,24 +2485,25 @@
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr">
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
         <is>
           <t>House Second Reading</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>2024-02-27</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2477,24 +2527,25 @@
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr">
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
         <is>
           <t>House Second Reading</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>2024-01-23</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2518,24 +2569,25 @@
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
         <is>
           <t>Vetoed by Governor</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>2023-04-18</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2559,24 +2611,25 @@
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr">
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
         <is>
           <t>Signed by Governor</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>2023-06-20</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2600,24 +2653,25 @@
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr">
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
         <is>
           <t>Signed by Governor</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>2023-05-19</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2641,24 +2695,25 @@
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr">
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
         <is>
           <t>Vetoed by Governor</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>2022-07-06</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2682,28 +2737,29 @@
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
           <t>ADOT (SEE: DEPARTMENT OF TRANSPORTATION), AUTONOMOUS VEHICLES, DEPARTMENT OF TRANSPORTATION (ADOT), DIRECTOR, DUTIES, TRANSPORTATION - TITLE 28</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>House Second Reading</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>2021-01-28</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2727,28 +2783,29 @@
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
           <t>ABORTION, CONTRACEPTION, CRIMINAL CODE - TITLE 13, DISABILITY INSURANCE, INSURANCE - TITLE 20, PHARMACIES, PRESCRIPTION DRUGS, PROFESSIONS AND OCCUPATIONS - TITLE 32, PUBLIC FINANCES - TITLE 35, PUBLIC HEALTH AND SAFETY - TITLE 36, PUBLIC OFFICERS AND EMPLOYEES - TITLE 38, RAPE VICTIMS, RELIGIOUS EMPLOYERS, REPEAL, TAXATION OF INCOME - TITLE 43, WOMEN'S HEALTH RESTORATION ACT</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>House First Reading.</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>2021-05-24</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2772,24 +2829,25 @@
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr">
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
         <is>
           <t>Died in House Committee at Sine Die adjournment.</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>2025-05-05T15:00:19+00:00</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2813,24 +2871,25 @@
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr">
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
         <is>
           <t>Died in House Committee at Sine Die adjournment.</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>2025-05-05T14:56:04+00:00</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2854,24 +2913,25 @@
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr">
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
         <is>
           <t>Notification that HB1958 is now Act 848</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>2025-04-17T20:42:14+00:00</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2895,24 +2955,25 @@
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr">
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
         <is>
           <t>Notification that HB1876 is now Act 927</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>2025-04-21T16:31:54+00:00</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2936,24 +2997,25 @@
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr">
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
         <is>
           <t>Notification that HB1877 is now Act 977</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>2025-04-22T20:59:53+00:00</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2977,24 +3039,25 @@
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr">
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
         <is>
           <t>WITHDRAWN BY AUTHOR</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>2025-04-14T13:36:10+00:00</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3018,24 +3081,25 @@
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr">
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
         <is>
           <t>WITHDRAWN BY AUTHOR</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>2025-04-01T13:55:43+00:00</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3059,24 +3123,25 @@
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr">
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
         <is>
           <t>WITHDRAWN BY AUTHOR</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>2025-03-18T13:32:57+00:00</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3100,24 +3165,25 @@
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr">
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
         <is>
           <t>Returned by the Committee with the recommendation that it do pass, concur in Senate Amendment No. 1</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>2025-02-26T22:08:58+00:00</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3141,24 +3207,25 @@
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr">
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
         <is>
           <t>Sine Die adjournment</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>2023-05-01T18:27:24+00:00</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3182,28 +3249,29 @@
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
           <t>Employment, automateddecisionsystems</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>From committee with author's amendments. Read second time and amended. Re-referred to Com. on L. &amp; E.</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>2025-06-19</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3227,28 +3295,29 @@
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
         <is>
           <t>concurrent resolution</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>FoundingoftheStateofCalifornia</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>Ordered to inactive file on request of Senator Alvarado-Gil.</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>2025-06-19</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3272,28 +3341,29 @@
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
           <t>Healthcareprofessions, artificialintelligence, deceptivetermsorletters</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>From committee chair, with author's amendments: Amend, and re-refer to committee. Read second time, amended, and re-referred to Com. on B. P. &amp; E.D.</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>2025-06-16</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3317,28 +3387,29 @@
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
         <is>
           <t>concurrent resolution</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>Publichighereducation, artificialintelligenceusage</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>Set for hearing July 2.</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>2025-06-19</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3362,28 +3433,29 @@
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
           <t>Personalrights, liability, socialmediaplatforms</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>From committee with author's amendments. Read second time and amended. Re-referred to Com. on P. &amp; C.P.</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>2025-06-19</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3407,28 +3479,29 @@
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
           <t>Workplacesurveillance</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>From committee chair, with author's amendments: Amend, and re-refer to committee. Read second time, amended, and re-referred to Com. on L., P.E. &amp; R.</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
+      <c r="J69" t="inlineStr">
         <is>
           <t>2025-06-19</t>
         </is>
       </c>
-      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3452,28 +3525,29 @@
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
           <t>CartwrightAct, violations</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>From committee chair, with author's amendments: Amend, and re-refer to committee. Read second time, amended, and re-referred to Com. on JUD.</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="J70" t="inlineStr">
         <is>
           <t>2025-06-19</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3497,28 +3571,29 @@
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
           <t>FairOnlinePricingAct</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>From committee with author's amendments. Read second time and amended. Re-referred to Com. on P. &amp; C.P.</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>2025-06-19</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3542,28 +3617,29 @@
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
           <t>Languageaccess</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>Referred to Coms. on HEALTH and G.O.</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
+      <c r="J72" t="inlineStr">
         <is>
           <t>2025-06-18</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3587,28 +3663,29 @@
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
           <t>Pornographicinternetwebsites, consent</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>Referred to Coms. on JUD. and PUB. S.</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>2025-06-18</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3632,28 +3709,29 @@
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
           <t>Artificialintelligencetechnology</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>Read second time and amended. Re-referred to Com. on PUB. S.</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
+      <c r="J74" t="inlineStr">
         <is>
           <t>2025-06-18</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3677,28 +3755,29 @@
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
           <t>Realestate, digitallyalteredimages, disclosure</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>Referred to Coms. on B. P. &amp; E.D. and JUD.</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>2025-06-18</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3722,28 +3801,29 @@
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
           <t>Schoollibraries, modellibrarystandards</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>Referred to Com. on ED.</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr">
+      <c r="J76" t="inlineStr">
         <is>
           <t>2025-06-18</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3767,28 +3847,29 @@
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
           <t>Bots, disclosure</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>Referred to Com. on JUD.</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr">
+      <c r="J77" t="inlineStr">
         <is>
           <t>2025-06-18</t>
         </is>
       </c>
-      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3812,28 +3893,29 @@
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
         <is>
           <t>bill, appropriation</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>BudgetActof2025</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>Enrolled and presented to the Governor at 11 a.m.</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr">
+      <c r="J78" t="inlineStr">
         <is>
           <t>2025-06-15</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3857,28 +3939,29 @@
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
           <t>CaliforniaEducationandWorkforceDevelopmentCoordinatingEntity, CareerTechnicalEducationandCareerPathwaysGrantProgram</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>Referred to Coms. on ED., HIGHER ED. , and L. &amp; E.</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr">
+      <c r="J79" t="inlineStr">
         <is>
           <t>2025-06-16</t>
         </is>
       </c>
-      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3902,28 +3985,29 @@
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
           <t>Elections, deceptivemediainadvertisements</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>From committee chair, with author's amendments: Amend, and re-refer to committee. Read second time, amended, and re-referred to Com. on E. &amp; C.A.</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr">
+      <c r="J80" t="inlineStr">
         <is>
           <t>2025-06-16</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3947,28 +4031,29 @@
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
           <t>InsuranceConsumerPrivacyProtectionActof2025</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>Referred to Coms. on INS. and P. &amp; C.P.</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr">
+      <c r="J81" t="inlineStr">
         <is>
           <t>2025-06-16</t>
         </is>
       </c>
-      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3992,28 +4077,29 @@
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
           <t>CalCompute, foundationmodels, whistleblowers</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>Re-referred to Coms. on JUD. and P. &amp; C.P. pursuant to Assembly Rule 96.</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr">
+      <c r="J82" t="inlineStr">
         <is>
           <t>2025-06-12</t>
         </is>
       </c>
-      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4037,28 +4123,29 @@
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
           <t>InformationPracticesActof1977</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>Referred to Com. on JUD.</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr">
+      <c r="J83" t="inlineStr">
         <is>
           <t>2025-06-11</t>
         </is>
       </c>
-      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4082,24 +4169,25 @@
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr">
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
         <is>
           <t>Governor Signed</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr">
+      <c r="J84" t="inlineStr">
         <is>
           <t>2025-05-30T06:00:00+00:00</t>
         </is>
       </c>
-      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4123,24 +4211,25 @@
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr">
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
         <is>
           <t>Governor Signed</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr">
+      <c r="J85" t="inlineStr">
         <is>
           <t>2025-06-02T06:00:00+00:00</t>
         </is>
       </c>
-      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4164,24 +4253,25 @@
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr">
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
         <is>
           <t>Governor Signed</t>
         </is>
       </c>
-      <c r="I86" t="inlineStr">
+      <c r="J86" t="inlineStr">
         <is>
           <t>2025-04-28T06:00:00+00:00</t>
         </is>
       </c>
-      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4205,24 +4295,25 @@
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr">
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
         <is>
           <t>Senate Committee on Appropriations Lay Over Unamended - Amendment(s) Failed</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr">
+      <c r="J87" t="inlineStr">
         <is>
           <t>2025-05-08T06:00:00+00:00</t>
         </is>
       </c>
-      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4246,24 +4337,25 @@
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr">
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
         <is>
           <t>House Committee on Appropriations Lay Over Unamended - Amendment(s) Failed</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr">
+      <c r="J88" t="inlineStr">
         <is>
           <t>2025-05-13T06:00:00+00:00</t>
         </is>
       </c>
-      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4287,24 +4379,25 @@
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr">
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
         <is>
           <t>House Second Reading Laid Over to 05/09/2025 - No Amendments</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr">
+      <c r="J89" t="inlineStr">
         <is>
           <t>2025-05-05T06:00:00+00:00</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4328,24 +4421,25 @@
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr">
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
         <is>
           <t>Senate Committee on Business, Labor, &amp; Technology Postpone Indefinitely</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr">
+      <c r="J90" t="inlineStr">
         <is>
           <t>2025-05-05T06:00:00+00:00</t>
         </is>
       </c>
-      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4369,24 +4463,25 @@
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr">
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
         <is>
           <t>House Committee on Judiciary Postpone Indefinitely</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
+      <c r="J91" t="inlineStr">
         <is>
           <t>2025-04-22T06:00:00+00:00</t>
         </is>
       </c>
-      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4410,24 +4505,25 @@
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr">
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
         <is>
           <t>Senate Committee on Transportation &amp; Energy Postpone Indefinitely</t>
         </is>
       </c>
-      <c r="I92" t="inlineStr">
+      <c r="J92" t="inlineStr">
         <is>
           <t>2025-01-29T07:00:00+00:00</t>
         </is>
       </c>
-      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4451,24 +4547,25 @@
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr">
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
         <is>
           <t>Governor Signed</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr">
+      <c r="J93" t="inlineStr">
         <is>
           <t>2024-05-24T06:00:00+00:00</t>
         </is>
       </c>
-      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4492,24 +4589,25 @@
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr">
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
         <is>
           <t>Governor Signed</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr">
+      <c r="J94" t="inlineStr">
         <is>
           <t>2024-05-17T06:00:00+00:00</t>
         </is>
       </c>
-      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4533,24 +4631,25 @@
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr">
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
         <is>
           <t>Governor Signed</t>
         </is>
       </c>
-      <c r="I95" t="inlineStr">
+      <c r="J95" t="inlineStr">
         <is>
           <t>2024-06-06T06:00:00+00:00</t>
         </is>
       </c>
-      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4574,24 +4673,25 @@
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr">
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr">
         <is>
           <t>House Committee on Education Postpone Indefinitely</t>
         </is>
       </c>
-      <c r="I96" t="inlineStr">
+      <c r="J96" t="inlineStr">
         <is>
           <t>2024-05-01T06:00:00+00:00</t>
         </is>
       </c>
-      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4615,24 +4715,25 @@
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr">
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr">
         <is>
           <t>Governor Signed</t>
         </is>
       </c>
-      <c r="I97" t="inlineStr">
+      <c r="J97" t="inlineStr">
         <is>
           <t>2023-05-20T06:00:00+00:00</t>
         </is>
       </c>
-      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4656,24 +4757,25 @@
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr">
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr">
         <is>
           <t>House Committee on Appropriations Lay Over Unamended - Amendment(s) Failed</t>
         </is>
       </c>
-      <c r="I98" t="inlineStr">
+      <c r="J98" t="inlineStr">
         <is>
           <t>2023-05-11T06:00:00+00:00</t>
         </is>
       </c>
-      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4697,24 +4799,25 @@
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr">
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr">
         <is>
           <t>Governor Signed</t>
         </is>
       </c>
-      <c r="I99" t="inlineStr">
+      <c r="J99" t="inlineStr">
         <is>
           <t>2022-06-03T06:00:00+00:00</t>
         </is>
       </c>
-      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4738,24 +4841,25 @@
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr">
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
         <is>
           <t>Governor Signed</t>
         </is>
       </c>
-      <c r="I100" t="inlineStr">
+      <c r="J100" t="inlineStr">
         <is>
           <t>2022-06-08T06:00:00+00:00</t>
         </is>
       </c>
-      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4779,24 +4883,25 @@
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr">
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr">
         <is>
           <t>Governor Signed</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr">
+      <c r="J101" t="inlineStr">
         <is>
           <t>2019-04-25T06:00:00+00:00</t>
         </is>
       </c>
-      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4820,28 +4925,29 @@
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
           <t>Advisory bodies, Artificial intelligence, Attorney General, Banks, Board of Regents for Higher Education, Connecticut Innovations, Incorporated, Consumer protection, Disclosure, Discrimination, Economic and Community Development, Department of, Health care data, Insurance companies, Libel and slander, Occupational training, Pilots, Policy and Management, Office of, Reports, State agencies, State employees, Task forces</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>HOUSE CALENDAR NUMBER 599</t>
         </is>
       </c>
-      <c r="I102" t="inlineStr">
+      <c r="J102" t="inlineStr">
         <is>
           <t>2025-05-16</t>
         </is>
       </c>
-      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4865,28 +4971,29 @@
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
           <t>Artificial intelligence, Attorney General, Digital media industries, Elections, Felonies, Fines (Penalties), Fraud, Misdemeanors, Primaries, Violations</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>TABLED FOR HOUSE CALENDAR</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr">
+      <c r="J103" t="inlineStr">
         <is>
           <t>2025-04-28</t>
         </is>
       </c>
-      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4910,28 +5017,29 @@
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
           <t>Administrative Services, Department of, Artificial intelligence, Assessments, Disclosure, Electronic government information, Electronic monitoring, Electronic surveillance, Employees, Employers, Fines (Penalties), Labor Department, State agencies, Violations</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>FAV. RPT., TAB. FOR CAL., SEN.</t>
         </is>
       </c>
-      <c r="I104" t="inlineStr">
+      <c r="J104" t="inlineStr">
         <is>
           <t>2025-05-07</t>
         </is>
       </c>
-      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4955,28 +5063,29 @@
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
           <t>Artificial intelligence, Electronic government information, Energy and Environmental Protection, Department of, Energy conservation, Reports, State regulations, generally, Water conservation</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>FILE NO. 538</t>
         </is>
       </c>
-      <c r="I105" t="inlineStr">
+      <c r="J105" t="inlineStr">
         <is>
           <t>2025-04-07</t>
         </is>
       </c>
-      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -5000,28 +5109,29 @@
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
           <t>Artificial intelligence, Electronic data, Municipalities, Policy and Management, Office of, State agencies</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>FILE NO. 606</t>
         </is>
       </c>
-      <c r="I106" t="inlineStr">
+      <c r="J106" t="inlineStr">
         <is>
           <t>2025-04-09</t>
         </is>
       </c>
-      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -5045,28 +5155,29 @@
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
           <t>Artificial intelligence, Fines (Penalties)</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>REF. TO JOINT COMM. ON Judiciary</t>
         </is>
       </c>
-      <c r="I107" t="inlineStr">
+      <c r="J107" t="inlineStr">
         <is>
           <t>2025-01-23</t>
         </is>
       </c>
-      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -5090,28 +5201,29 @@
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
           <t>Artificial intelligence, Teachers</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>REF. TO JOINT COMM. ON Education</t>
         </is>
       </c>
-      <c r="I108" t="inlineStr">
+      <c r="J108" t="inlineStr">
         <is>
           <t>2025-01-22</t>
         </is>
       </c>
-      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5135,28 +5247,29 @@
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
           <t>Artificial intelligence, Health insurance claims denials</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>REF. TO JOINT COMM. ON Insurance and Real Estate</t>
         </is>
       </c>
-      <c r="I109" t="inlineStr">
+      <c r="J109" t="inlineStr">
         <is>
           <t>2025-01-21</t>
         </is>
       </c>
-      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5180,28 +5293,29 @@
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
           <t>Artificial intelligence, Health insurance claims denials</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>REF. TO JOINT COMM. ON Insurance and Real Estate</t>
         </is>
       </c>
-      <c r="I110" t="inlineStr">
+      <c r="J110" t="inlineStr">
         <is>
           <t>2025-01-21</t>
         </is>
       </c>
-      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -5225,28 +5339,29 @@
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
           <t>Artificial intelligence, Pornography</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>REF. TO JOINT COMM. ON Judiciary</t>
         </is>
       </c>
-      <c r="I111" t="inlineStr">
+      <c r="J111" t="inlineStr">
         <is>
           <t>2025-01-21</t>
         </is>
       </c>
-      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5270,28 +5385,29 @@
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
           <t>Artificial intelligence, Health insurance, Patients</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>REF. TO JOINT COMM. ON Insurance and Real Estate</t>
         </is>
       </c>
-      <c r="I112" t="inlineStr">
+      <c r="J112" t="inlineStr">
         <is>
           <t>2025-01-10</t>
         </is>
       </c>
-      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5315,28 +5431,29 @@
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
           <t>Artificial intelligence, Energy conservation, Renewable energy sources, Water conservation</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
+      <c r="I113" t="inlineStr">
         <is>
           <t>REF. TO JOINT COMM. ON Energy and Technology</t>
         </is>
       </c>
-      <c r="I113" t="inlineStr">
+      <c r="J113" t="inlineStr">
         <is>
           <t>2025-01-10</t>
         </is>
       </c>
-      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5360,28 +5477,29 @@
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
           <t>Artificial intelligence, Criminal law, Fines (Penalties), Libel and slander, Photographs</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>REF. TO JOINT COMM. ON Judiciary</t>
         </is>
       </c>
-      <c r="I114" t="inlineStr">
+      <c r="J114" t="inlineStr">
         <is>
           <t>2025-01-09</t>
         </is>
       </c>
-      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5405,28 +5523,29 @@
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
           <t>Artificial intelligence, Pornography</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>REF. TO JOINT COMM. ON Judiciary</t>
         </is>
       </c>
-      <c r="I115" t="inlineStr">
+      <c r="J115" t="inlineStr">
         <is>
           <t>2025-01-08</t>
         </is>
       </c>
-      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5450,28 +5569,29 @@
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
           <t>Artificial intelligence, State employees, Studies, Task forces</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>REF. TO JOINT COMM. ON Labor and Public Employees</t>
         </is>
       </c>
-      <c r="I116" t="inlineStr">
+      <c r="J116" t="inlineStr">
         <is>
           <t>2025-01-08</t>
         </is>
       </c>
-      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5495,28 +5615,29 @@
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
           <t>Artificial intelligence, Displaced workers, Studies, Technical Education and Career System</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>REF. TO JOINT COMM. ON Labor and Public Employees</t>
         </is>
       </c>
-      <c r="I117" t="inlineStr">
+      <c r="J117" t="inlineStr">
         <is>
           <t>2025-01-08</t>
         </is>
       </c>
-      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5540,28 +5661,29 @@
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
           <t>Artificial intelligence, Felonies, Lewdness, Misdemeanors</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
+      <c r="I118" t="inlineStr">
         <is>
           <t>FILE NO. 515</t>
         </is>
       </c>
-      <c r="I118" t="inlineStr">
+      <c r="J118" t="inlineStr">
         <is>
           <t>2024-04-16</t>
         </is>
       </c>
-      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5585,28 +5707,29 @@
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
           <t>Administrative Services, Department of, Artificial intelligence, Attorney General, Board of Regents for Higher Education, Charter Oak State College, Consumer Protection Department, Economic and Community Development, Department of, Education, Felonies, Governor's Workforce Council, Misdemeanors, Occupational training, Reports, Risk management, Technology deployment, Workforce Strategy, Office of</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
+      <c r="I119" t="inlineStr">
         <is>
           <t>HOUSE CALENDAR NUMBER 426</t>
         </is>
       </c>
-      <c r="I119" t="inlineStr">
+      <c r="J119" t="inlineStr">
         <is>
           <t>2024-04-25</t>
         </is>
       </c>
-      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5630,28 +5753,29 @@
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
           <t>Artificial intelligence, Elections, Felonies, Fines (Penalties), Fraud, Internet, Primaries, Videos</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
+      <c r="I120" t="inlineStr">
         <is>
           <t>TABLED FOR HOUSE CALENDAR</t>
         </is>
       </c>
-      <c r="I120" t="inlineStr">
+      <c r="J120" t="inlineStr">
         <is>
           <t>2024-04-23</t>
         </is>
       </c>
-      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -5675,28 +5799,29 @@
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
+      <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr">
         <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
           <t>Administrative Services, Department of, Advisory bodies, Artificial intelligence, Discrimination, Electronic government information, Freedom of information, Judicial Department, Policy and Management, Office of, Privacy, Public hearings, Reports, State agencies, State contracts, State government, Studies, Task forces</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
+      <c r="I121" t="inlineStr">
         <is>
           <t>SIGNED BY GOVERNOR</t>
         </is>
       </c>
-      <c r="I121" t="inlineStr">
+      <c r="J121" t="inlineStr">
         <is>
           <t>2023-06-07</t>
         </is>
       </c>
-      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5720,24 +5845,25 @@
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr">
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr">
         <is>
           <t>concurrent resolution</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr"/>
-      <c r="H122" t="inlineStr">
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr">
         <is>
           <t>Reported Out of Committee (Natural Resources &amp; Energy) in House with 12 On Its Merits</t>
         </is>
       </c>
-      <c r="I122" t="inlineStr">
+      <c r="J122" t="inlineStr">
         <is>
           <t>2025-06-11</t>
         </is>
       </c>
-      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -5761,24 +5887,25 @@
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr">
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr">
         <is>
           <t>Signed by Governor</t>
         </is>
       </c>
-      <c r="I123" t="inlineStr">
+      <c r="J123" t="inlineStr">
         <is>
           <t>2025-05-13</t>
         </is>
       </c>
-      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5802,24 +5929,25 @@
         </is>
       </c>
       <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>bill</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr"/>
-      <c r="H124" t="inlineStr">
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr">
         <is>
           <t>Signed by Governor</t>
         </is>
       </c>
-      <c r="I124" t="inlineStr">
+      <c r="J124" t="inlineStr">
         <is>
           <t>2024-07-17</t>
         </is>
       </c>
-      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5843,24 +5971,4891 @@
         </is>
       </c>
       <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr">
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr">
         <is>
           <t>concurrent resolution</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr">
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr">
         <is>
           <t>Passed By Senate. Votes: 21 YES</t>
         </is>
       </c>
-      <c r="I125" t="inlineStr">
+      <c r="J125" t="inlineStr">
         <is>
           <t>2019-03-07</t>
         </is>
       </c>
-      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>District of Columbia</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>ocd-bill/2b8e0189-d373-493e-a8db-eee8010ea21e</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>PR 25-0292</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Board of Physical Therapy Nicholas Caylor Confirmation Resolution of 2023</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>resolution</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Resolution R25-0282, Effective from Oct 03, 2023 Published in DC Register Page 013881</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>2023-10-20T04:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>District of Columbia</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>ocd-bill/f6224903-adcd-4499-90a3-41e1335e2610</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>B 25-0114</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Stop Discrimination by Algorithms Act of 2023</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Notice of Intent to Act on B25-0114 Published in the District of Columbia Register</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>2023-02-10T05:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>District of Columbia</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>ocd-bill/cbd40ded-56d9-4661-97c3-0614a42c6479</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>B 25-0408</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Contract No. DCHBX-E-2023-0002 with Norton Rose Fulbright, LLC Approval and Payment Authorization Emergency Act of 2023</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Act A25-0177 Published in DC Register Vol 70 and Page 010461, Expires on Oct 19, 2023</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>2023-07-28T04:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>District of Columbia</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>ocd-bill/ad238b58-8184-492b-a5cb-b8858ba9d7cf</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>B 25-0320</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Fiscal Year 2024 Budget Support Emergency Act of 2023</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Act A25-0172 Published in DC Register Vol 70 and Page 009933, Expires on Oct 12, 2023</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>2023-07-21T04:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>District of Columbia</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>ocd-bill/e6d1dcc7-130b-4fe3-827b-0d2c158e1022</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>PR 24-0718</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Commission on Asian and Pacific Islander Community Development Jeffrey Le Confirmation Resolution of 2022</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>resolution</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Roundtable on PR24-0718</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>2022-06-13T04:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>District of Columbia</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>ocd-bill/42025401-3854-48bb-908c-3718c458ad1e</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>PR 24-0598</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Homeland Security Commission Kelvin Coleman Confirmation Resolution of 2022</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>resolution</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Resolution R24-0439, Effective from Apr 19, 2022 Published in DC Register Page 004055</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>2022-04-29T04:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>District of Columbia</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>ocd-bill/bbaf2f53-9f9a-4432-a9e6-7b487dac5072</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>B 24-0373</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Fiscal Year 2022 Budget Support Emergency Act of 2021</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Act A24-0159 Published in DC Register Vol 68 and Page 008602, Expires on Nov 21, 2021</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>2021-08-27T04:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>District of Columbia</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>ocd-bill/60a786ea-0238-48c1-8f1d-8b74733b89a4</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>B 24-0484</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Fiscal Year 2022 Budget Support Congressional Review Emergency Act of 2021</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Act A24-0235 Published in DC Register Vol 68 and Page 013255, Expires on Mar 13, 2022</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>2021-12-17T05:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>District of Columbia</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>ocd-bill/e70031ec-a2d1-40df-876f-1307b06aaf79</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>B 24-0558</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Stop Discrimination by Algorithms Act of 2021</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Public Hearing on B24-0558 View Public Hearing Record</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>2022-09-22T04:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>District of Columbia</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>ocd-bill/854271b9-0388-4743-9ef2-d95ccfba178d</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>B 24-0285</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Fiscal Year 2022 Budget Support Act of 2021</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Law L24-0045, Effective from Nov 13, 2021 Published in DC Register Vol 68 and Page 012567</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>2021-12-03T05:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>District of Columbia</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>ocd-bill/24205630-3359-4b49-808c-c917accd4f73</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>B 24-1052</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Uniform Commercial Code Amendment Act of 2022</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Notice of Intent to Act on B24-1052 Published in the District of Columbia Register</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>2022-10-21T04:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>District of Columbia</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>ocd-bill/4fcf0d88-21e9-4e93-85b5-3e1f61c3bf79</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>PR 24-0191</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Homeland Security Commission Patrick Bobb Confirmation Resolution of 2021</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>resolution</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Notice of Intent to Act on PR24-0191 Published in the District of Columbia Register</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>2021-04-23T04:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>District of Columbia</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>ocd-bill/eacfa6a3-1847-4fa2-8aa2-4766f5bad051</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>PR 22-0183</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Science Advisory Board Simone N. Gittelson Confirmation Resolution of 2017</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>referred to committee</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>2017-03-21</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>District of Columbia</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>ocd-bill/d70f1094-61ee-4113-845e-c07b1738f39e</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>RC 22-0125</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Correspondence from the Mayor - DOES Universal Paid Family Leave Report</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>resolution</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Introduced</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>2018-01-16</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>District of Columbia</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>ocd-bill/e3618786-4178-4561-8af6-8722c40dcbf1</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>RC 22-0044</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Correspondence from the OPC-DC - Value of Solar Study: Distributed Solar in the District of Columbia - Policy Options, Potential, Value of Solar and Cost-Shifting and the Solar Generation Potential and Integration of Distributed Energy Resources in Low and Middle Income Communities in Washington, DC</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>resolution</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Introduced</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>2017-04-12</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>District of Columbia</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>ocd-bill/2edff5c9-b27f-4e33-ac46-c7ee4eb49c0e</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>RC 22-0053</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Correspondence from the CCRC - Recommendations for Enactment of D.C. Code Title 22 and Other Changes to Criminal Statues</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>resolution</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Introduced</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>2017-05-05</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>District of Columbia</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>ocd-bill/8f8a1b2e-370b-4be5-bf43-90a01760c23c</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>RC 22-0127</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Correspondence from the CCRC - 2017 Annual Report</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>resolution</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Introduced</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>2018-01-18</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>District of Columbia</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>ocd-bill/c0da9a3b-cae6-4c01-af56-0526505064f6</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>RC 23-0172</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Correspondence from the Mayor - DC Autonomous Vehicles Study Report</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>resolution</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>RC23-0172 Introduced by Chairman Mendelson at Office of the Secretary</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>2020-04-07T04:00:04+00:00</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>District of Columbia</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>ocd-bill/4fcf3061-6e1a-4b6a-aa8c-3a5f2855bedb</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>RC 23-0149</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Correspondence from the D.C. Criminal Code Reform Commission- Criminal Code Reform Commission FY 2020 First Quarter Report</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>resolution</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>RC23-0149 Introduced by Chairman Mendelson at Office of the Secretary</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>2020-02-06T05:00:20+00:00</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>ocd-bill/378ed98d-63df-40ef-9f93-baf13f693df2</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>SB 394</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Elections</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>electors and elections</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>Died in Ethics and Elections</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>ocd-bill/75bdd79b-6ad1-4e3f-a628-f141b9bd4279</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>HB 1433</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Hurricane Mitigation Grants and Insurers' Regulations</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>homestead and exemptions, subject index</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Died in Commerce Committee</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>ocd-bill/c4f6c96a-8bbd-4328-9c29-8a0b45080bea</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>SB 1740</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Insurance</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>insurance, subject index</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Died in Appropriations Committee on Agriculture, Environment, and General Government</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>ocd-bill/c52b145d-6414-4644-9042-3d1dc4dfef9c</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>SB 166</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Administrative Efficiency in Public Schools</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>k, public officers, employees, and records, relations</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Died in Messages</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>ocd-bill/bf2a25a6-01e9-4cdf-8b8f-31d6a4cfef84</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>SB 7026</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Information Technology</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>subject index</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Died in Messages</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>ocd-bill/d0b03589-31d4-48af-ba86-c9417360cfe1</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>HB 1213</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>K-12 School Route Optimization Pilot Program</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>subject index</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>Died in Rules</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>ocd-bill/2ebd07f5-1a81-4e88-b320-4bcd77e00a72</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>SB 702</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Provenance of Digital Content</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>military affairs and related matters, subject index</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>Died in Ethics and Elections</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>ocd-bill/9bebf03f-68af-4063-b2bb-ff750368b5cb</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>HB 1555</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Insurers' Liabilities and Responsibilities</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>subject index</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>Died in Insurance &amp; Banking Subcommittee</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>ocd-bill/9f09ff05-ba90-43cc-bb2a-64d9d06aa1a9</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>SB 562</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Use of Artificial Intelligence to Detect Firearms</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>subject index</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>Died in Criminal Justice</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>ocd-bill/8ea609cb-043b-4aba-821c-88bbe10bee7f</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>HB 369</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Provenance of Digital Content</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>military affairs and related matters, subject index</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Died on Second Reading Calendar</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>ocd-bill/982f40e5-ba70-4630-9de7-4cfcc28c670f</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>HB 827</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Statewide Study on Automation and Workforce Impact</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>Signed by Officers and presented to Governor</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>ocd-bill/89454b5d-56a7-417a-af4b-ee887522590a</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>SB 794</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Mandatory Human Reviews of Insurance Claim Denials</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>subject index</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Died in Appropriations Committee on Agriculture, Environment, and General Government</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>ocd-bill/dcddbc73-9cda-448c-b478-19f9a3de6d4a</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>HB 491</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Use of Artificial Intelligence by Governmental Agencies to Detect Concealed Firearms</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>subject index</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>Died in Rules</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>ocd-bill/24b46b0c-3414-4199-88e1-13c96edc12be</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>HB 907</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Florida Institute for Pediatric Rare Diseases</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>subject index</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>Signed by Officers and presented to Governor</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>ocd-bill/bb2ad7bf-df01-46ff-af54-9959ccfd8736</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>SB 1424</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>K-12 School Transportation</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>subject index</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>Died in Education Pre-K - 12</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>ocd-bill/8db4ffbd-50a9-4481-8804-a97e0907a1f1</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>HR 8027</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>resolution</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>subject index</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>Adopted by Publication</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>ocd-bill/e6e16a0f-b0c5-4328-823a-c553d47ee7f6</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>SR 1564</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>resolution</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>subject index</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>Adopted</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>ocd-bill/7638a887-c752-467e-be3b-d07ae3769f40</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>SB 936</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Statewide Study on Automation and Workforce Impact</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>subject index</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>Laid on Table, refer to HB 827</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>ocd-bill/af8c1f33-5753-4474-8b80-c8a45b80cc11</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>SR 1860</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Keiser University Day</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>resolution</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>(adopted)</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>Adopted</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>ocd-bill/476cf105-e01e-49f6-a36d-4607d842293f</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>SB 1356</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Florida Institute for Pediatric Rare Diseases</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>subject index</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Laid on Table, refer to CS/CS/HB 907</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>ocd-bill/4eb7af64-a09f-417c-ad25-c55517fb4747</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>HB 327</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Official Code of Georgia Annotated; amend various titles</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>Effective Date</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>2025-07-01</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>ocd-bill/0f5f512e-8200-4cb6-9263-4c59c3e2880b</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>HB 566</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>NO FAKES Act of 2025; enact</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>House Withdrawn, Recommitted</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>ocd-bill/ac6c8219-7d9b-4182-a6b8-e0c0582dea88</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>HR 815</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>House Study Committee on Exploring the Potential for Humanoids and Robotics in Georgia Workforce Development; create</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>resolution</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>House Withdrawn, Recommitted</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>ocd-bill/cea2d51a-8697-4097-b75e-456615d422b6</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>SB 179</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Education; the academic and disciplinary records of each transferring student shall be provided within five days; require</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>House Passed/Adopted By Substitute</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>ocd-bill/75cd2bc0-720f-4f14-aae4-7ec200750441</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>SR 391</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Senate Study Committee on Artificial Intelligence and Digital Currency; create</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>resolution</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>Senate Passed/Adopted By Substitute</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>ocd-bill/10467ea2-1fef-4f79-814b-980fd067a614</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>SR 431</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Senate Impact of Social Media and Artificial Intelligence on Children and Platform Privacy Protection Study Committee; create</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>resolution</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>Senate Passed/Adopted By Substitute</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>ocd-bill/28996a5e-2a8e-4489-9561-7f3d67c13feb</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>HB 679</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>End Rental Price-Fixing Act; enact</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>House Second Readers</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>2025-03-03</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>ocd-bill/fdf8309a-4207-437e-b34b-5b96bc573769</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>HB 171</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Crimes and offenses; obscenity; repeal and replace Code Section 16-12-80</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>Senate Committee Favorably Reported  By Substitute</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>ocd-bill/4a4ef751-bee1-4bd6-85f9-1d696fc319d7</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>HB 147</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Georgia Technology Authority; annual inventory of artificial intelligence usage by state agencies; provide</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>Senate Read Second Time</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>ocd-bill/483ef98d-21bf-464f-993b-de4888c17de9</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>SB 9</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>"Ensuring Accountability for Illegal AI Activities Act"; enact</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>House Passed/Adopted By Substitute</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>ocd-bill/c315945c-5ae8-4b72-b9b4-c2a53dfb458a</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>HB 715</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Fair and Future Ready Housing Act; enact</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>House Second Readers</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>ocd-bill/137748df-d7ab-41be-bf1c-ce00b76d26a7</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>SB 318</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Contracts; certain agreements involving parallel pricing coordination as unenforceable contracts in general restraint of trade with respect to residential rental properties; prohibit</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>Senate Read and Referred</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>ocd-bill/ff79ba62-1e61-46b2-aa4c-dba8b44b11e3</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>SB 249</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>"Quality Basic Education Act,"; beginning in the 2031-2032 school year, a computer science course shall be a high school graduation requirement; provide</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>Senate Read and Referred</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>ocd-bill/71af87ba-1890-4b72-af75-cd077b80eb02</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>HB 478</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Commerce and trade; require that AI generated content include a disclaimer indicating such content was generated using artificial intelligence</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>House Second Readers</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>ocd-bill/a7093b64-3383-4b86-bd99-5d5af1d0112f</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>HB 487</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Quality Basic Education Act; computer science course shall be a high school graduation requirement beginning in 2031; provide</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>House Second Readers</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>ocd-bill/072461c9-5d74-4201-bb36-7e04b0e4cfdd</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>HR 300</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Smith, Denise N.; commend</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>resolution</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>House Read and Adopted</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>ocd-bill/08a98618-607c-4068-9182-30da8f09d4dc</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>HR 292</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Blanco, Dr. Whitney N.; commend</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>resolution</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>House Read and Adopted</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>ocd-bill/ce0dfd7f-fa45-49ac-907e-532ad49bd6d0</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>HR 298</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Bell, Kristin; commend</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>resolution</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>House Read and Adopted</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>ocd-bill/3c2bb0a3-f4e0-4088-9e0e-a170db0869cf</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>HR 299</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Carr, Evan Marie; commend</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>resolution</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>House Read and Adopted</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>ocd-bill/1a392358-2f03-4865-bb1e-4af677485daa</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>HR 294</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Davis, Sherrod; commend</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>resolution</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>House Read and Adopted</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Hawaii</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>ocd-bill/b50a504d-049a-459f-9e97-2808956a7d21</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>SCR 179</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>URGING CONGRESS TO BEGIN A DISCUSSION CONSIDERING THE BENEFITS AND RISKS OF ARTIFICIAL INTELLIGENCE TECHNOLOGIES.</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>concurrent resolution</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence, Technology</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>Certified copies of resolutions sent.</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>2023-05-22</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Hawaii</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>ocd-bill/ea9222bf-4de5-493d-a51c-82dcae81200a</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>SR 123</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>URGING CONGRESS TO BEGIN A DISCUSSION CONSIDERING THE BENEFITS AND RISKS OF ARTIFICIAL INTELLIGENCE TECHNOLOGIES.</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>resolution</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence, Technology</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>Certified copies of resolutions sent.</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>2023-05-22</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Hawaii</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>ocd-bill/e2337164-8a6e-444e-b215-693303444fdb</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>SCR 126</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>REQUESTING THE DEPARTMENT OF BUSINESS, ECONOMIC DEVELOPMENT, AND TOURISM AND THE DEPARTMENT OF LABOR AND INDUSTRIAL RELATIONS TO CO-CONVENE A WORKING GROUP TO DEVELOP A COMPREHENSIVE PLAN FOR WORKFORCE DEVELOPMENT WITH A FOCUS ON THE PRIORITY ECONOMIC CLUSTERS ESTABLISHED BY THE DEPARTMENT OF BUSINESS, ECONOMIC DEVELOPMENT, AND TOURISM, TO MEET THE NEEDS OF THE STATE'S NEW ECONOMY.</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>concurrent resolution</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Automation, Department of Business, Department of Labor and Industrial Relations, Digitization, Economic Development, Report, Working Group, and Tourism</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>Referred to ECD, LGO, referral sheet 28</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>2023-04-11</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Hawaii</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>ocd-bill/0dd5271d-c3af-4fa0-abbf-101beaa42da7</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>HB 901</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>RELATING TO THE PROTECTION OF AQUATIC MAMMALS.</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Captive Aquatic Mammals, Display, Exhibition, Prohibition</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>Referred to WAL, JHA, FIN, referral sheet 3</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Hawaii</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>ocd-bill/ec11a0f4-2ef8-4d5d-b42d-861313b408a9</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>SCR 214</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>REQUESTING THE UNIVERSITY OF HAWAII TO ESTABLISH A RELIABLE, INDEPENDENT, AND TRANSPARENT METHODOLOGY TO ASSESS EFFECTS OF RADIO FREQUENCY EMISSIONS GENERATED BY WIRELESS ANTENNA SITES.</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>concurrent resolution</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>5G, Study, Telecommunications, University of Hawaii</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>Re-referred to HET, FIN, referral sheet 46</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>2022-04-07</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Hawaii</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>ocd-bill/fb40c2df-a47c-4036-b6ac-2a0254d5b935</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>SB 1390</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>RELATING TO BROADBAND INFRASTRUCTURE.</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>And Tourism, Appropriations ($), Broadband Infrastructure Task Force, Comptroller, Department of Business, Economic Development</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>Carried over to 2022 Regular Session.</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>2021-12-10</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Hawaii</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>ocd-bill/61fe99a0-aa2d-49ea-8620-9efbb2d7d0a7</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>SR 207</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>REQUESTING THE UNIVERSITY OF HAWAII TO ESTABLISH A RELIABLE, INDEPENDENT, AND TRANSPARENT METHODOLOGY TO ASSESS EFFECTS OF RADIO FREQUENCY EMISSIONS GENERATED BY WIRELESS ANTENNA SITES.</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>resolution</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>5G, Study, Telecommunications, University of Hawaii</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>Certified copies of resolutions sent, 06/06/22.</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>2022-06-06</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Hawaii</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>ocd-bill/c96d57b8-507c-4ec4-b11c-930e12f25cd8</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>SB 1348</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>RELATING TO WATER CARRIERS.</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Appropriation ($), Establishment, Maritime Commission, Maritime Commission Special Fund, Public Utilities Commission, Transfer of Functions, Water Carriers</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>The committee on TRS deferred the measure.</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>2022-02-15</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Hawaii</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>ocd-bill/91596110-b350-426c-9979-ebb9b76c0f97</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>HB 2397</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>RELATING TO BROADBAND.</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Appropriation ($), Broadband Equity, Digital Equity, Hawaii Broadband Infrastructure Authority, Hawaii Broadband and Digital Equity Office, UH</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>Referred to GVO, WAM.</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>2022-03-11</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Hawaii</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>ocd-bill/36d859aa-30d2-4037-a52c-9d0ad4535871</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>HB 1189</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>RELATING TO CORONAVIRUS TESTING AT AIRPORTS.</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Airports, Appropriation ($), Coronavirus, Health, Tourism, Travel</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>Carried over to 2022 Regular Session.</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>2021-12-10</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Hawaii</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>ocd-bill/4e84b13d-1b71-4784-a49a-5430bb3b0de3</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>HR 32</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>REQUESTING THE UNIVERSITY OF HAWAII TO ESTABLISH A RELIABLE, INDEPENDENT, AND TRANSPARENT METHODOLOGY TO ASSESS EFFECTS OF RADIO FREQUENCY EMISSIONS GENERATED BY WIRELESS ANTENNA SITES.</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>resolution</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Methodology, Radio Frequency Emissions, University of Hawaii</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>Reported from HET (Stand. Com. Rep. No. 1474-22) as amended in HD 1, recommending referral to CPC.</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>2022-03-29</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Hawaii</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>ocd-bill/5b8bb6ea-1670-486c-91b8-fa0976478a2e</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>SB 428</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>RELATING TO FELONIES.</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>City and County of Honolulu Mayor's Package, Felonies, Interference, Public Transit Operations</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>Carried over to 2022 Regular Session.</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>2021-12-10</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Hawaii</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>ocd-bill/abfe20e3-426d-4101-91b3-9f53c19b3cb8</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>HCR 37</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>REQUESTING THE UNIVERSITY OF HAWAII TO ESTABLISH A RELIABLE, INDEPENDENT, AND TRANSPARENT METHODOLOGY TO ASSESS EFFECTS OF RADIO FREQUENCY EMISSIONS GENERATED BY WIRELESS ANTENNA SITES.</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>concurrent resolution</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Methodology, Radio Frequency Emissions, University of Hawaii</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>Reported from HET (Stand. Com. Rep. No. 1475-22) as amended in HD 1, recommending referral to CPC.</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>2022-03-29</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Hawaii</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>ocd-bill/798bc1ec-c7de-4afc-8bb4-c66ff027ad48</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>HB 454</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>RELATING TO TAXATION.</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence, Cybersecurity, Taxation, Technology</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>Carried over to 2022 Regular Session.</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>2021-12-10</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Hawaii</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>ocd-bill/257a73eb-84e7-4ab8-8250-ec74520079d8</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>HB 1129</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>RELATING TO WATER CARRIERS.</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Appropriation ($), Establishment, Maritime Commission, Maritime Commission Special Fund, Public Utilities Commission, Transfer of Functions, Water Carriers</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>Carried over to 2022 Regular Session.</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>2021-12-10</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Hawaii</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>ocd-bill/56c9faeb-3eb3-4472-8707-fa76f0c6a79b</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>SB 428</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>RELATING TO FELONIES.</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>City and County of Honolulu Mayor's Package, Felonies, Interference, Public Transit Operations</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>The committee(s) on JHA recommend(s) that the measure be deferred.</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>2021-04-06</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Hawaii</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>ocd-bill/8f6d9151-74da-422a-9b40-4ab8a037dee6</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>HB 1189</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>RELATING TO CORONAVIRUS TESTING AT AIRPORTS.</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Airports, Appropriation ($), Coronavirus, Health, Tourism, Travel</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>Re-referred to PDP/TRN, FIN, referral sheet 6</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>2021-02-04</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Hawaii</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>ocd-bill/837b3fb0-b4db-4f00-96fc-e377c3c76fbe</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>SCR 84</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>REQUESTING THE HAWAII TECHNOLOGY DEVELOPMENT CORPORATION AND LEEWARD COMMUNITY COLLEGE TO STUDY THE FEASIBILITY OF ESTABLISHING TECHNOLOGY ACADEMY PROGRAMS AT AIEA HIGH SCHOOL AND PEARL CITY HIGH SCHOOL.</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>concurrent resolution</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Aiea High School, Department of Education, Hawaii Technology Development Corporation, Leeward Community College, Pearl City High School, Technology Academy Program</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>Referred to HRE/GVO.</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>2021-03-11</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Hawaii</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>ocd-bill/1c696246-dc9d-436e-9cce-37dd1aed39f7</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>HB 454</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>RELATING TO TAXATION.</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence, Cybersecurity, Taxation, Technology</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>Referred to ECD, CPC, FIN, referral sheet 1</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Hawaii</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>ocd-bill/5aca6487-ea24-469c-9872-bec6a72f3af9</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>SR 64</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>REQUESTING THE HAWAII TECHNOLOGY DEVELOPMENT CORPORATION AND LEEWARD COMMUNITY COLLEGE TO STUDY THE FEASIBILITY OF ESTABLISHING TECHNOLOGY ACADEMY PROGRAMS AT AIEA HIGH SCHOOL AND PEARL CITY HIGH SCHOOL.</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>resolution</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Aiea High School, Department of Education, Hawaii Technology Development Corporation, Leeward Community College, Pearl City High School, Technology Academy Program</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>Referred to HRE/GVO.</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>2021-03-11</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Idaho</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>ocd-bill/f78e3a8e-bd6b-411d-b482-9054397a0700</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>S 1182</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>UNIFORM GUARDIANSHIP, CONSERVATORSHIP, AND OTHER PROTECTIVE ARRANGEMENTS ACT – Amends, repeals, and adds to existing law to establish the Uniform Guardianship, Conservatorship, and Other Protective Arrangements Act.</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>CHILDREN, COURTS, DISABILITIES, PERSONS WITH, ELDERLY, GUARDIANS AND CONSERVATORS, PROBATE</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>Reported Printed; referred to Judiciary &amp; Rules</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Idaho</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>ocd-bill/c1dbf283-3ed8-4aff-9e54-f34929c05173</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>H 364</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>DEPARTMENT OF GOVERNMENTAL EFFICIENCY (DOGE) – Adds to existing law to establish the Department of Governmental Efficiency Task Force.</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>APPROPRIATIONS, FINANCE, FUNDS, GOVERNMENT, HOUSE OF REPRESENTATIVES, LEGISLATURE, SENATE</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>Introduced, read first time; referred to: State Affairs</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>2025-03-11</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Idaho</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>ocd-bill/77b98f51-c672-472b-94bf-8db3a2366a5c</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>S 1067</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>ARTIFICIAL INTELLIGENCE – Adds to existing law to establish limitations on regulation of artificial intelligence.</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>BUSINESS AND BUSINESS ENTITIES, GOVERNMENT, SCIENCE AND TECHNOLOGY, SPEECH</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>Reported Printed; referred to State Affairs</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Idaho</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>ocd-bill/ca916a2a-d155-41e8-baf9-b2782c9486b8</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>H 127</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>CONSUMER PROTECTION – Adds to existing law to establish provisions regarding disclosure of artificial intelligence communications.</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>ATTORNEY GENERAL, BUSINESS AND BUSINESS ENTITIES, COMMERCE, CONSUMERS, SCIENCE AND TECHNOLOGY</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>Reported Printed and Referred to Business</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Idaho</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>ocd-bill/6175652a-5da3-4013-9729-8872dd6222fa</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>H 421</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>INDIVIDUAL’S SEX – Amends existing law to define terms and to revise definitions regarding “sex” and “gender.”</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>CRIMINAL OFFENSES AND PROCEDURES, EDUCATION, GENDER, GOVERNMENT, LEGISLATURE, RECORDS</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>Reported Signed by Governor on April 9, 2024    Session Law Chapter 322    Effective: 07/01/2024</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>2024-04-10</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Idaho</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>ocd-bill/c4688ac9-491a-4775-9b9f-58d44e83d5e0</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>H 575</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>DISCLOSING EXPLICIT SYNTHETIC MEDIA – Adds to existing law to provide for the crime of disclosing explicit synthetic media.</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>CRIMINAL OFFENSES AND PROCEDURES, SCIENCE AND TECHNOLOGY, SEX OFFENSES AND OFFENDERS</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>Reported Signed by Governor on March 19, 2024    Session Law Chapter 105    Effective: 07/01/2024</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Idaho</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>ocd-bill/f3d9421b-1e92-4fa0-b129-457a05e2f318</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>H 568</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>STATE AFFAIRS – Adds to existing law to establish the Artificial Intelligence Advisory Council.</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>GOVERNMENT, LEGISLATURE, PRIVACY, SCIENCE AND TECHNOLOGY</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>Introduced, read first time; referred to: State Affairs</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Idaho</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>ocd-bill/1774605b-d535-4843-b57a-03cc3e9b85e0</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>H 391</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>EXPLICIT SYNTHETIC MEDIA – Adds to existing law to provide for the crime of disclosing explicit synthetic media.</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="inlineStr"/>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>CRIMINAL OFFENSES AND PROCEDURES, SCIENCE AND TECHNOLOGY, SEX OFFENSES AND OFFENDERS</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>Reported Printed and Referred to Judiciary, Rules &amp; Administration</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>2024-01-15</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Idaho</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>ocd-bill/aaeb626f-09c7-4b38-9b56-34b99cb88323</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>S 1349</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>UNIFORM GUARDIANSHIP, CONSERVATORSHIP, AND OTHER PROTECTIVE ARRANGEMENTS ACT – Amends, repeals, and adds to existing law to establish the Uniform Guardianship, Conservatorship, and Other Protective Arrangements Act.</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr"/>
+      <c r="F213" t="inlineStr"/>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>ACTS, GUARDIANS AND CONSERVATORS, UNIFORM AND MODEL LAWS</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>Reported Printed; referred to Judiciary &amp; Rules</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>2024-02-13</t>
+        </is>
+      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Idaho</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>ocd-bill/82c41826-45c2-4a89-a425-7d14d8f0cd04</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>H 720</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>PERSONHOOD – Adds to existing law to provide that environmental elements, artificial intelligence, nonhuman animals, and inanimate objects shall not be granted personhood.</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr"/>
+      <c r="F214" t="inlineStr"/>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>ANIMALS, CIVIL ACTIONS, COURTS</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>Reported Signed by Governor on March 31, 2022    Session Law Chapter 322    Effective: 07/01/2022</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>2022-03-31</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Idaho</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>ocd-bill/9c2fbdd7-b47c-418a-83af-3f1ce7e0c6a6</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>S 1296</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>OCCUPATIONAL LICENSING – Amends existing law to replace references to the Bureau of Occupational Licenses with the Division of Occupational and Professional Licenses.</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr"/>
+      <c r="F215" t="inlineStr"/>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>OCCUPATIONAL AND PROFESSIONAL LICENSES</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>Signed by Governor on 03/21/22    Session Law Chapter 94    Effective: 07/01/2022;    07/01/2024 Sunset Clause - SECTION 75 &amp; 76</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Idaho</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>ocd-bill/eec16a0a-b41f-4d9c-9eb1-90268a5fd4ac</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>H 647</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>PERSONHOOD – Adds to existing law to provide that environmental elements, artificial intelligence, animals, and inanimate objects shall not be granted personhood.</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>ANIMALS, CIVIL ACTIONS, COURTS</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>Read Third Time in Full – U.C. to be returned to State Affairs Committee</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>2022-02-25</t>
+        </is>
+      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Illinois</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>ocd-bill/0d57b9c0-f80f-418d-8fac-42a76d7b76a6</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>SB 1507</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>VEH CD-SAFETY ZONES</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>Sent to the Governor</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Illinois</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>ocd-bill/6f862596-1351-4bce-af19-3fe85f547f90</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>SB 150</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>ELEC CD-AI ADVERT DISCLOSURE</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>Rule 3-9(a) / Re-referred to Assignments</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Illinois</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>ocd-bill/cfbe252c-e8d9-4bf8-9863-4ab0a11345e3</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>SB 2619</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>DEPT OF GOVERNMENT EFFICIENCY</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr"/>
+      <c r="F219" t="inlineStr"/>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>Referred to Assignments</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Illinois</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>ocd-bill/43c18870-c523-4303-88b9-5de1f47f1d55</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>HB 3334</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>HUBZONE CENTER FOR EXCELLENCE</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="inlineStr"/>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>Rule 19(a) / Re-referred to Rules Committee</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Illinois</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>ocd-bill/f6b7b172-b5fd-4a59-a503-15a629ff9648</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>SB 2117</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>USE OF AI BY STATE GOVERNMENT</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>Added as Co-Sponsor Sen. Terri Bryant</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Illinois</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>ocd-bill/9cf9292f-ff81-4812-898a-f24981a63c10</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>SB 2259</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>HEALTH CARE GENERATIVE AI USE</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr"/>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>Senate Committee Amendment No. 1 Rule 3-9(a) / Re-referred to Assignments</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Illinois</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>ocd-bill/fbe15041-1267-4e5e-b762-7b2bc0231f09</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>HB 3529</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>AI PRINCIPLES</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr"/>
+      <c r="F223" t="inlineStr"/>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>Rule 19(a) / Re-referred to Rules Committee</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Illinois</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>ocd-bill/14ae3122-fcc2-4542-94ae-d1b128629893</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>HB 3567</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>AI-MEANINGFUL HUMAN REVIEW</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr"/>
+      <c r="F224" t="inlineStr"/>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>Rule 19(a) / Re-referred to Rules Committee</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Illinois</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>ocd-bill/de765e89-5a34-40dc-918b-7c8200ca00f5</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>HB 3503</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>CURRICULUM OVERVIEW&amp;ALIGNMENT</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr"/>
+      <c r="F225" t="inlineStr"/>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>Rule 3-9(a) / Re-referred to Assignments</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Illinois</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>ocd-bill/5aaffedb-a21c-494b-b2f2-cee1fc6d6d22</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>HB 3646</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>DOIT-AI TASK FORCE</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr"/>
+      <c r="F226" t="inlineStr"/>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>Rule 3-9(a) / Re-referred to Assignments</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Illinois</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>ocd-bill/7477a406-658b-4db4-901d-785307270e36</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>HB 1806</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>THERAPY RESOURCES OVERSIGHT</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr"/>
+      <c r="F227" t="inlineStr"/>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>Added as Alternate Co-Sponsor Sen. Mike Simmons</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
+      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Illinois</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>ocd-bill/4132d7e9-9cf8-4997-bccd-3a0d119ffac6</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>SB 456</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>EMPLOYMENT-TECH</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>Rule 3-9(a) / Re-referred to Assignments</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Illinois</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>ocd-bill/4dcd4ee3-01a9-45f4-819e-eb478e176f77</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>HB 3041</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>DATA PRIVACY AND PROTECTION</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>Rule 19(a) / Re-referred to Rules Committee</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Illinois</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>ocd-bill/6c490dd2-68b4-40d1-8972-dd3c4dae0b82</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>SB 1792</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>FRAUD-ARTIFICIAL INTELLIGENCE</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr"/>
+      <c r="F230" t="inlineStr"/>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>Rule 3-9(a) / Re-referred to Assignments</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Illinois</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>ocd-bill/be83d07d-6657-4d0c-a62f-8f3de8714683</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>SB 1364</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>PROHIBITED PROP OWNERSHIP</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr"/>
+      <c r="F231" t="inlineStr"/>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>Added as Co-Sponsor Sen. Chris Balkema</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Illinois</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>ocd-bill/ab8a27af-07b9-40e7-bbed-f692da3bd4d0</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>HB 2655</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>BD HIGHER ED-AI ED REPORT</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr"/>
+      <c r="F232" t="inlineStr"/>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>Rule 19(a) / Re-referred to Rules Committee</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Illinois</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>ocd-bill/d6226fdb-3f95-4389-a257-ecca8993f727</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>SB 2398</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>SPORTS WAGERING-AI RESTRICTION</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr"/>
+      <c r="F233" t="inlineStr"/>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>Rule 3-9(a) / Re-referred to Assignments</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Illinois</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>ocd-bill/bab8effa-85d8-4000-be15-28810006663b</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>HB 3838</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>TICKET SALES-DYNAMIC PRICING</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr"/>
+      <c r="F234" t="inlineStr"/>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>House Committee Amendment No. 1 Rule 19(c) / Re-referred to Rules Committee</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Illinois</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>ocd-bill/fc7488df-a34f-4236-a01c-c73a0ddec74e</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>SB 1554</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>CRIM CD-ARTIFICIAL INTELLIGENC</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr"/>
+      <c r="F235" t="inlineStr"/>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>Rule 3-9(a) / Re-referred to Assignments</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Illinois</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>ocd-bill/23961561-7a73-4617-af60-47312db2e927</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>HB 1859</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>COM COL-COURSE INSTRUCTOR-AI</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr"/>
+      <c r="F236" t="inlineStr"/>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>Passed Both Houses</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>2025-05-30</t>
+        </is>
+      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
